--- a/娜娜莉及标准人物卡.xlsx
+++ b/娜娜莉及标准人物卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a490da8f5737f2a/ERA/DEVELOP/eraFantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2965" documentId="1_{15E04475-8495-47C9-B48B-3070195741A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E233C14-B991-4027-8FB1-1A336850570E}"/>
+  <xr:revisionPtr revIDLastSave="2973" documentId="1_{15E04475-8495-47C9-B48B-3070195741A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9675253A-9DC9-4954-B088-00D420615EE6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="6012" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="12" r:id="rId1"/>
@@ -46,17 +46,17 @@
   <commentList>
     <comment ref="E37" authorId="0" shapeId="0" xr:uid="{B1C1A79E-A7A7-4310-83F3-DA73BD216D76}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     注意大分了两种，但不一定是以此增大的两档</t>
       </text>
     </comment>
     <comment ref="E38" authorId="1" shapeId="0" xr:uid="{A2FD18FB-A901-4CF4-9F12-CAC7F513FBA1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     注意大分了两种，但不一定是以此增大的两档</t>
       </text>
     </comment>
@@ -74,25 +74,25 @@
   <commentList>
     <comment ref="B9" authorId="0" shapeId="0" xr:uid="{1E7B9394-2D3C-4BCF-A60C-9E07F4EF3D5F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     暂定是奥术研究员</t>
       </text>
     </comment>
     <comment ref="E35" authorId="1" shapeId="0" xr:uid="{583D2745-9921-442A-B9DA-A546EEF54F15}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     注意大分了两种，但不一定是以此增大的两档</t>
       </text>
     </comment>
     <comment ref="E36" authorId="2" shapeId="0" xr:uid="{6971D1F2-8ACF-4B7B-A8CF-466ABD23244F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     注意大分了两种，但不一定是以此增大的两档</t>
       </text>
     </comment>
@@ -2133,7 +2133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,7 +2143,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2290,6 +2290,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Noto Sans SC"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2346,7 +2360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2369,8 +2383,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2396,6 +2419,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2478,21 +2505,9 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2510,17 +2525,31 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="40% - 輔色3" xfId="8" builtinId="39"/>
-    <cellStyle name="一般" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="中等" xfId="5" builtinId="28"/>
-    <cellStyle name="輔色1" xfId="2" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="6" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="3" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="7" builtinId="45"/>
-    <cellStyle name="輸出" xfId="1" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="4" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="11">
+    <cellStyle name="40% - 着色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="标题 3 2" xfId="10" xr:uid="{D6686A7E-3780-4C7F-A1B2-70C1585A2349}"/>
+    <cellStyle name="差" xfId="4" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="9" xr:uid="{84451DFB-E93C-4F1C-B5BF-9373C0CDA51B}"/>
+    <cellStyle name="适中" xfId="5" builtinId="28"/>
+    <cellStyle name="输出" xfId="1" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="2" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="6" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="3" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="7" builtinId="45"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -3360,25 +3389,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16D6648-B257-4DFB-88D0-86D849E26275}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.625" style="22"/>
+    <col min="5" max="5" width="44.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.08984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6328125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3419,15 +3448,15 @@
         <v>6</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3450,11 +3479,11 @@
         <v>14</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -3473,11 +3502,11 @@
         <v>17</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
@@ -3492,11 +3521,11 @@
       <c r="F5" s="3"/>
       <c r="G5" s="12"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -3511,11 +3540,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="12"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -3530,11 +3559,11 @@
       <c r="F7" s="3"/>
       <c r="G7" s="12"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -3549,11 +3578,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -3572,11 +3601,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="12"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -3595,11 +3624,11 @@
       <c r="F10" s="3"/>
       <c r="G10" s="12"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -3618,11 +3647,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="12"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -3639,13 +3668,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="12"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" ht="80.099999999999994" customHeight="1">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" ht="80.150000000000006" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
@@ -3732,7 +3761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18">
+    <row r="16" spans="1:13">
       <c r="A16" s="11" t="s">
         <v>39</v>
       </c>
@@ -3746,17 +3775,17 @@
       <c r="E16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="38" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="29" t="s">
         <v>44</v>
       </c>
       <c r="K16" s="12"/>
@@ -3765,7 +3794,7 @@
       </c>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="18">
+    <row r="17" spans="1:13">
       <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
@@ -3779,24 +3808,24 @@
       <c r="E17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="38" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="32"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="12"/>
       <c r="L17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="18">
+    <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
         <v>48</v>
       </c>
@@ -3810,17 +3839,17 @@
       <c r="E18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="38" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="29" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="12"/>
@@ -3829,7 +3858,7 @@
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="18">
+    <row r="19" spans="1:13">
       <c r="A19" s="11" t="s">
         <v>52</v>
       </c>
@@ -3843,17 +3872,17 @@
       <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="38" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K19" s="12"/>
@@ -3862,7 +3891,7 @@
       </c>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="18">
+    <row r="20" spans="1:13">
       <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
@@ -3876,15 +3905,15 @@
       <c r="E20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="31" t="s">
+      <c r="G20" s="32"/>
+      <c r="H20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="29" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="12"/>
@@ -3893,7 +3922,7 @@
       </c>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13" ht="18">
+    <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -3907,17 +3936,17 @@
       <c r="E21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="38" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="29" t="s">
         <v>62</v>
       </c>
       <c r="K21" s="12"/>
@@ -3926,7 +3955,7 @@
       </c>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="18">
+    <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
@@ -3940,15 +3969,15 @@
       <c r="E22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="31" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="29" t="s">
         <v>65</v>
       </c>
       <c r="K22" s="12"/>
@@ -3957,16 +3986,16 @@
       </c>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75">
-      <c r="F23" s="35" t="s">
+    <row r="23" spans="1:13">
+      <c r="F23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="31" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="29" t="s">
         <v>67</v>
       </c>
       <c r="K23" s="12"/>
@@ -3975,7 +4004,7 @@
       </c>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13">
       <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
@@ -3989,17 +4018,17 @@
       <c r="E24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="38" t="s">
+      <c r="G24" s="32"/>
+      <c r="H24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="29" t="s">
         <v>73</v>
       </c>
       <c r="K24" s="12"/>
@@ -4008,7 +4037,7 @@
       </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75">
+    <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
         <v>74</v>
       </c>
@@ -4022,17 +4051,17 @@
       <c r="E25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="38" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="29" t="s">
         <v>77</v>
       </c>
       <c r="K25" s="12"/>
@@ -4041,7 +4070,7 @@
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
+    <row r="26" spans="1:13">
       <c r="A26" s="11" t="s">
         <v>78</v>
       </c>
@@ -4055,17 +4084,17 @@
       <c r="E26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="32"/>
+      <c r="H26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K26" s="12"/>
@@ -4074,7 +4103,7 @@
       </c>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75">
+    <row r="27" spans="1:13">
       <c r="A27" s="11" t="s">
         <v>82</v>
       </c>
@@ -4088,15 +4117,15 @@
       <c r="E27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="31" t="s">
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="29" t="s">
         <v>84</v>
       </c>
       <c r="K27" s="12"/>
@@ -4105,20 +4134,20 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75">
+    <row r="28" spans="1:13">
       <c r="B28" s="12"/>
       <c r="C28" s="4"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="31" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="29" t="s">
         <v>86</v>
       </c>
       <c r="K28" s="12"/>
@@ -4127,7 +4156,7 @@
       </c>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13">
       <c r="A29" s="11" t="s">
         <v>87</v>
       </c>
@@ -4139,13 +4168,13 @@
       <c r="E29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="31" t="s">
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="29" t="s">
         <v>90</v>
       </c>
       <c r="K29" s="12"/>
@@ -4154,7 +4183,7 @@
       </c>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13">
       <c r="A30" s="11" t="s">
         <v>91</v>
       </c>
@@ -4166,17 +4195,17 @@
       <c r="E30" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="38" t="s">
+      <c r="G30" s="32"/>
+      <c r="H30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="29" t="s">
         <v>95</v>
       </c>
       <c r="K30" s="12"/>
@@ -4185,7 +4214,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13">
       <c r="A31" s="11" t="s">
         <v>96</v>
       </c>
@@ -4195,16 +4224,16 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="12"/>
       <c r="L31" s="4"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75">
+    <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
         <v>97</v>
       </c>
@@ -4214,15 +4243,15 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="31" t="s">
+      <c r="G32" s="32"/>
+      <c r="H32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="29" t="s">
         <v>99</v>
       </c>
       <c r="K32" s="12"/>
@@ -4231,7 +4260,7 @@
       </c>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75">
+    <row r="33" spans="1:13">
       <c r="A33" s="11" t="s">
         <v>100</v>
       </c>
@@ -4241,17 +4270,17 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="38" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="29" t="s">
         <v>103</v>
       </c>
       <c r="K33" s="12"/>
@@ -4260,25 +4289,25 @@
       </c>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:13">
+      <c r="A34" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="38" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="29" t="s">
         <v>107</v>
       </c>
       <c r="K34" s="12"/>
@@ -4287,29 +4316,29 @@
       </c>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="38" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="38" t="s">
+      <c r="G35" s="32"/>
+      <c r="H35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="29" t="s">
         <v>112</v>
       </c>
       <c r="K35" s="12"/>
@@ -4318,27 +4347,27 @@
       </c>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:13">
+      <c r="A36" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="38" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="31" t="s">
+      <c r="G36" s="32"/>
+      <c r="H36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="29" t="s">
         <v>116</v>
       </c>
       <c r="K36" s="12"/>
@@ -4347,29 +4376,29 @@
       </c>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:13">
+      <c r="A37" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="38" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="38" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="29" t="s">
         <v>121</v>
       </c>
       <c r="K37" s="12"/>
@@ -4378,27 +4407,27 @@
       </c>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="38" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39" t="s">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="29" t="s">
         <v>126</v>
       </c>
       <c r="K38" s="12"/>
@@ -4407,29 +4436,29 @@
       </c>
       <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:13">
+      <c r="A39" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="38" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="38" t="s">
+      <c r="G39" s="32"/>
+      <c r="H39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="29" t="s">
         <v>131</v>
       </c>
       <c r="K39" s="12"/>
@@ -4438,29 +4467,29 @@
       </c>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75">
-      <c r="A40" s="35" t="s">
+    <row r="40" spans="1:13">
+      <c r="A40" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="38" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="38" t="s">
+      <c r="G40" s="32"/>
+      <c r="H40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="29" t="s">
         <v>136</v>
       </c>
       <c r="K40" s="12"/>
@@ -4469,29 +4498,29 @@
       </c>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:13">
+      <c r="A41" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="38" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="38" t="s">
+      <c r="G41" s="32"/>
+      <c r="H41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="31" t="s">
+      <c r="J41" s="29" t="s">
         <v>141</v>
       </c>
       <c r="K41" s="12"/>
@@ -4500,29 +4529,29 @@
       </c>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:13">
+      <c r="A42" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="38" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="38" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="31" t="s">
+      <c r="J42" s="29" t="s">
         <v>145</v>
       </c>
       <c r="K42" s="12"/>
@@ -4531,29 +4560,29 @@
       </c>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:13">
+      <c r="A43" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="38" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="38" t="s">
+      <c r="G43" s="32"/>
+      <c r="H43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="29" t="s">
         <v>149</v>
       </c>
       <c r="K43" s="12"/>
@@ -4562,29 +4591,29 @@
       </c>
       <c r="M43" s="13"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:13">
+      <c r="A44" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="38" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="38" t="s">
+      <c r="G44" s="32"/>
+      <c r="H44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J44" s="31" t="s">
+      <c r="J44" s="29" t="s">
         <v>153</v>
       </c>
       <c r="K44" s="12"/>
@@ -4593,29 +4622,29 @@
       </c>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
-      <c r="A45" s="35" t="s">
+    <row r="45" spans="1:13">
+      <c r="A45" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="38" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="38" t="s">
+      <c r="G45" s="32"/>
+      <c r="H45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="29" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="12"/>
@@ -4624,29 +4653,29 @@
       </c>
       <c r="M45" s="13"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75">
-      <c r="A46" s="35" t="s">
+    <row r="46" spans="1:13">
+      <c r="A46" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="38" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="38" t="s">
+      <c r="G46" s="32"/>
+      <c r="H46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="29" t="s">
         <v>161</v>
       </c>
       <c r="K46" s="12"/>
@@ -4655,29 +4684,29 @@
       </c>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:13">
+      <c r="A47" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="38" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="38" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="29" t="s">
         <v>166</v>
       </c>
       <c r="K47" s="12"/>
@@ -4686,29 +4715,29 @@
       </c>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75">
-      <c r="A48" s="35" t="s">
+    <row r="48" spans="1:13">
+      <c r="A48" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="38" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="38" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="29" t="s">
         <v>171</v>
       </c>
       <c r="K48" s="12"/>
@@ -4717,29 +4746,29 @@
       </c>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:13">
+      <c r="A49" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="38" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="38" t="s">
+      <c r="G49" s="32"/>
+      <c r="H49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="29" t="s">
         <v>176</v>
       </c>
       <c r="K49" s="12"/>
@@ -4748,29 +4777,29 @@
       </c>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75">
-      <c r="A50" s="35" t="s">
+    <row r="50" spans="1:13">
+      <c r="A50" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="38" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="38" t="s">
+      <c r="G50" s="32"/>
+      <c r="H50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="29" t="s">
         <v>181</v>
       </c>
       <c r="K50" s="12"/>
@@ -4779,56 +4808,56 @@
       </c>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75">
-      <c r="A51" s="35" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="38" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="38"/>
-      <c r="J51" s="31" t="s">
+      <c r="G51" s="32"/>
+      <c r="H51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="29" t="s">
         <v>185</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="4"/>
       <c r="M51" s="13"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="35" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="38" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="38" t="s">
+      <c r="G52" s="32"/>
+      <c r="H52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="29" t="s">
         <v>190</v>
       </c>
       <c r="K52" s="12"/>
@@ -4837,7 +4866,7 @@
       </c>
       <c r="M52" s="13"/>
     </row>
-    <row r="53" spans="1:13" ht="18">
+    <row r="53" spans="1:13">
       <c r="F53" s="6" t="s">
         <v>191</v>
       </c>
@@ -4846,15 +4875,15 @@
       <c r="I53" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="J53" s="32"/>
+      <c r="J53" s="30"/>
       <c r="K53" s="12"/>
       <c r="L53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M53" s="13"/>
     </row>
-    <row r="54" spans="1:13" ht="18.75">
-      <c r="F54" s="31" t="s">
+    <row r="54" spans="1:13">
+      <c r="F54" s="29" t="s">
         <v>193</v>
       </c>
       <c r="G54" s="12"/>
@@ -4864,15 +4893,15 @@
       <c r="I54" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J54" s="32"/>
+      <c r="J54" s="30"/>
       <c r="K54" s="12"/>
       <c r="L54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M54" s="13"/>
     </row>
-    <row r="55" spans="1:13" ht="18.75">
-      <c r="F55" s="31" t="s">
+    <row r="55" spans="1:13">
+      <c r="F55" s="29" t="s">
         <v>195</v>
       </c>
       <c r="G55" s="12"/>
@@ -4882,7 +4911,7 @@
       <c r="I55" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="29" t="s">
         <v>196</v>
       </c>
       <c r="K55" s="12"/>
@@ -4891,8 +4920,8 @@
       </c>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75">
-      <c r="F56" s="31" t="s">
+    <row r="56" spans="1:13">
+      <c r="F56" s="29" t="s">
         <v>197</v>
       </c>
       <c r="G56" s="12"/>
@@ -4902,7 +4931,7 @@
       <c r="I56" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J56" s="31" t="s">
+      <c r="J56" s="29" t="s">
         <v>198</v>
       </c>
       <c r="K56" s="12"/>
@@ -4911,8 +4940,8 @@
       </c>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="1:13" ht="18.75">
-      <c r="F57" s="31" t="s">
+    <row r="57" spans="1:13">
+      <c r="F57" s="29" t="s">
         <v>199</v>
       </c>
       <c r="G57" s="12"/>
@@ -4922,7 +4951,7 @@
       <c r="I57" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J57" s="31" t="s">
+      <c r="J57" s="29" t="s">
         <v>200</v>
       </c>
       <c r="K57" s="12"/>
@@ -4931,13 +4960,13 @@
       </c>
       <c r="M57" s="13"/>
     </row>
-    <row r="58" spans="1:13" ht="18.75">
+    <row r="58" spans="1:13">
       <c r="A58" s="3"/>
       <c r="B58" s="12"/>
       <c r="C58" s="4"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="29" t="s">
         <v>201</v>
       </c>
       <c r="G58" s="12"/>
@@ -4947,7 +4976,7 @@
       <c r="I58" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J58" s="31" t="s">
+      <c r="J58" s="29" t="s">
         <v>202</v>
       </c>
       <c r="K58" s="12"/>
@@ -4956,8 +4985,8 @@
       </c>
       <c r="M58" s="13"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75">
-      <c r="F59" s="31" t="s">
+    <row r="59" spans="1:13">
+      <c r="F59" s="29" t="s">
         <v>203</v>
       </c>
       <c r="G59" s="12"/>
@@ -4967,7 +4996,7 @@
       <c r="I59" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J59" s="31" t="s">
+      <c r="J59" s="29" t="s">
         <v>204</v>
       </c>
       <c r="K59" s="12"/>
@@ -4976,8 +5005,8 @@
       </c>
       <c r="M59" s="13"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75">
-      <c r="F60" s="31" t="s">
+    <row r="60" spans="1:13">
+      <c r="F60" s="29" t="s">
         <v>205</v>
       </c>
       <c r="G60" s="12"/>
@@ -4987,7 +5016,7 @@
       <c r="I60" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J60" s="31" t="s">
+      <c r="J60" s="29" t="s">
         <v>206</v>
       </c>
       <c r="K60" s="12"/>
@@ -4996,8 +5025,8 @@
       </c>
       <c r="M60" s="13"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75">
-      <c r="F61" s="31" t="s">
+    <row r="61" spans="1:13">
+      <c r="F61" s="29" t="s">
         <v>207</v>
       </c>
       <c r="G61" s="12"/>
@@ -5007,15 +5036,15 @@
       <c r="I61" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J61" s="32"/>
+      <c r="J61" s="30"/>
       <c r="K61" s="12"/>
       <c r="L61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M61" s="13"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75">
-      <c r="F62" s="31" t="s">
+    <row r="62" spans="1:13">
+      <c r="F62" s="29" t="s">
         <v>208</v>
       </c>
       <c r="G62" s="12"/>
@@ -5025,7 +5054,7 @@
       <c r="I62" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="29" t="s">
         <v>209</v>
       </c>
       <c r="K62" s="12"/>
@@ -5034,8 +5063,8 @@
       </c>
       <c r="M62" s="13"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75">
-      <c r="F63" s="31" t="s">
+    <row r="63" spans="1:13">
+      <c r="F63" s="29" t="s">
         <v>210</v>
       </c>
       <c r="G63" s="12"/>
@@ -5045,7 +5074,7 @@
       <c r="I63" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J63" s="31" t="s">
+      <c r="J63" s="29" t="s">
         <v>211</v>
       </c>
       <c r="K63" s="12"/>
@@ -5054,8 +5083,8 @@
       </c>
       <c r="M63" s="13"/>
     </row>
-    <row r="64" spans="1:13" ht="18.75">
-      <c r="F64" s="31" t="s">
+    <row r="64" spans="1:13">
+      <c r="F64" s="29" t="s">
         <v>212</v>
       </c>
       <c r="G64" s="12"/>
@@ -5065,15 +5094,15 @@
       <c r="I64" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J64" s="32"/>
+      <c r="J64" s="30"/>
       <c r="K64" s="12"/>
       <c r="L64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M64" s="13"/>
     </row>
-    <row r="65" spans="1:13" ht="18.75">
-      <c r="F65" s="31" t="s">
+    <row r="65" spans="1:13">
+      <c r="F65" s="29" t="s">
         <v>213</v>
       </c>
       <c r="G65" s="12"/>
@@ -5083,18 +5112,18 @@
       <c r="I65" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J65" s="32"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="12"/>
       <c r="L65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M65" s="13"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75">
+    <row r="66" spans="1:13">
       <c r="G66" s="12"/>
       <c r="H66" s="4"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="29" t="s">
         <v>214</v>
       </c>
       <c r="K66" s="12"/>
@@ -5103,8 +5132,8 @@
       </c>
       <c r="M66" s="13"/>
     </row>
-    <row r="67" spans="1:13" ht="18.75">
-      <c r="F67" s="31" t="s">
+    <row r="67" spans="1:13">
+      <c r="F67" s="29" t="s">
         <v>215</v>
       </c>
       <c r="G67" s="12"/>
@@ -5114,7 +5143,7 @@
       <c r="I67" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="29" t="s">
         <v>216</v>
       </c>
       <c r="K67" s="12"/>
@@ -5123,8 +5152,8 @@
       </c>
       <c r="M67" s="13"/>
     </row>
-    <row r="68" spans="1:13" ht="18.75">
-      <c r="F68" s="31" t="s">
+    <row r="68" spans="1:13">
+      <c r="F68" s="29" t="s">
         <v>217</v>
       </c>
       <c r="G68" s="12"/>
@@ -5134,7 +5163,7 @@
       <c r="I68" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J68" s="31" t="s">
+      <c r="J68" s="29" t="s">
         <v>218</v>
       </c>
       <c r="K68" s="12"/>
@@ -5143,8 +5172,8 @@
       </c>
       <c r="M68" s="13"/>
     </row>
-    <row r="69" spans="1:13" ht="18.75">
-      <c r="F69" s="31" t="s">
+    <row r="69" spans="1:13">
+      <c r="F69" s="29" t="s">
         <v>219</v>
       </c>
       <c r="G69" s="12"/>
@@ -5154,7 +5183,7 @@
       <c r="I69" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="J69" s="31" t="s">
+      <c r="J69" s="29" t="s">
         <v>221</v>
       </c>
       <c r="K69" s="12"/>
@@ -5163,8 +5192,8 @@
       </c>
       <c r="M69" s="13"/>
     </row>
-    <row r="70" spans="1:13" ht="18.75">
-      <c r="F70" s="31" t="s">
+    <row r="70" spans="1:13">
+      <c r="F70" s="29" t="s">
         <v>222</v>
       </c>
       <c r="G70" s="12"/>
@@ -5174,7 +5203,7 @@
       <c r="I70" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J70" s="31" t="s">
+      <c r="J70" s="29" t="s">
         <v>223</v>
       </c>
       <c r="K70" s="12"/>
@@ -5183,8 +5212,8 @@
       </c>
       <c r="M70" s="13"/>
     </row>
-    <row r="71" spans="1:13" ht="18.75">
-      <c r="F71" s="31" t="s">
+    <row r="71" spans="1:13">
+      <c r="F71" s="29" t="s">
         <v>224</v>
       </c>
       <c r="G71" s="12"/>
@@ -5194,7 +5223,7 @@
       <c r="I71" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="J71" s="31" t="s">
+      <c r="J71" s="29" t="s">
         <v>226</v>
       </c>
       <c r="K71" s="12"/>
@@ -5203,8 +5232,8 @@
       </c>
       <c r="M71" s="13"/>
     </row>
-    <row r="72" spans="1:13" ht="18.75">
-      <c r="F72" s="31" t="s">
+    <row r="72" spans="1:13">
+      <c r="F72" s="29" t="s">
         <v>227</v>
       </c>
       <c r="G72" s="12"/>
@@ -5214,7 +5243,7 @@
       <c r="I72" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J72" s="31" t="s">
+      <c r="J72" s="29" t="s">
         <v>228</v>
       </c>
       <c r="K72" s="12"/>
@@ -5223,8 +5252,8 @@
       </c>
       <c r="M72" s="13"/>
     </row>
-    <row r="73" spans="1:13" ht="18.75">
-      <c r="F73" s="31" t="s">
+    <row r="73" spans="1:13">
+      <c r="F73" s="29" t="s">
         <v>229</v>
       </c>
       <c r="G73" s="12"/>
@@ -5234,7 +5263,7 @@
       <c r="I73" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="29" t="s">
         <v>230</v>
       </c>
       <c r="K73" s="12"/>
@@ -5243,8 +5272,8 @@
       </c>
       <c r="M73" s="13"/>
     </row>
-    <row r="74" spans="1:13" ht="18.75">
-      <c r="F74" s="31" t="s">
+    <row r="74" spans="1:13">
+      <c r="F74" s="29" t="s">
         <v>231</v>
       </c>
       <c r="G74" s="12"/>
@@ -5254,7 +5283,7 @@
       <c r="I74" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="29" t="s">
         <v>232</v>
       </c>
       <c r="K74" s="12"/>
@@ -5263,8 +5292,8 @@
       </c>
       <c r="M74" s="13"/>
     </row>
-    <row r="75" spans="1:13" ht="18.75">
-      <c r="F75" s="31" t="s">
+    <row r="75" spans="1:13">
+      <c r="F75" s="29" t="s">
         <v>233</v>
       </c>
       <c r="G75" s="12"/>
@@ -5274,7 +5303,7 @@
       <c r="I75" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J75" s="31" t="s">
+      <c r="J75" s="29" t="s">
         <v>234</v>
       </c>
       <c r="K75" s="12"/>
@@ -5283,8 +5312,8 @@
       </c>
       <c r="M75" s="13"/>
     </row>
-    <row r="76" spans="1:13" ht="18.75">
-      <c r="F76" s="31" t="s">
+    <row r="76" spans="1:13">
+      <c r="F76" s="29" t="s">
         <v>235</v>
       </c>
       <c r="G76" s="12"/>
@@ -5294,7 +5323,7 @@
       <c r="I76" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="29" t="s">
         <v>236</v>
       </c>
       <c r="K76" s="12"/>
@@ -5303,13 +5332,13 @@
       </c>
       <c r="M76" s="13"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75">
+    <row r="77" spans="1:13">
       <c r="A77" s="3"/>
       <c r="B77" s="12"/>
       <c r="C77" s="4"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
-      <c r="J77" s="31" t="s">
+      <c r="J77" s="29" t="s">
         <v>237</v>
       </c>
       <c r="K77" s="12"/>
@@ -5318,13 +5347,13 @@
       </c>
       <c r="M77" s="13"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75">
+    <row r="78" spans="1:13">
       <c r="A78" s="3"/>
       <c r="B78" s="12"/>
       <c r="C78" s="4"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
-      <c r="F78" s="31" t="s">
+      <c r="F78" s="29" t="s">
         <v>238</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -5333,7 +5362,7 @@
       <c r="I78" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J78" s="31" t="s">
+      <c r="J78" s="29" t="s">
         <v>239</v>
       </c>
       <c r="K78" s="12"/>
@@ -5342,13 +5371,13 @@
       </c>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" spans="1:13" ht="18.75">
+    <row r="79" spans="1:13">
       <c r="A79" s="3"/>
       <c r="B79" s="12"/>
       <c r="C79" s="4"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="29" t="s">
         <v>240</v>
       </c>
       <c r="H79" s="4" t="s">
@@ -5357,7 +5386,7 @@
       <c r="I79" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="29" t="s">
         <v>241</v>
       </c>
       <c r="K79" s="12"/>
@@ -5366,13 +5395,13 @@
       </c>
       <c r="M79" s="13"/>
     </row>
-    <row r="80" spans="1:13" ht="18.75">
+    <row r="80" spans="1:13">
       <c r="A80" s="3"/>
       <c r="B80" s="12"/>
       <c r="C80" s="4"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="29" t="s">
         <v>242</v>
       </c>
       <c r="H80" s="4" t="s">
@@ -5381,7 +5410,7 @@
       <c r="I80" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J80" s="31" t="s">
+      <c r="J80" s="29" t="s">
         <v>243</v>
       </c>
       <c r="K80" s="12"/>
@@ -5390,12 +5419,12 @@
       </c>
       <c r="M80" s="13"/>
     </row>
-    <row r="81" spans="1:13" ht="18.75">
+    <row r="81" spans="1:13">
       <c r="A81" s="3"/>
       <c r="B81" s="12"/>
       <c r="C81" s="4"/>
       <c r="D81" s="13"/>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="29" t="s">
         <v>244</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -5404,7 +5433,7 @@
       <c r="I81" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J81" s="31" t="s">
+      <c r="J81" s="29" t="s">
         <v>245</v>
       </c>
       <c r="K81" s="12"/>
@@ -5413,26 +5442,26 @@
       </c>
       <c r="M81" s="13"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75">
+    <row r="82" spans="1:13">
       <c r="A82" s="3"/>
       <c r="B82" s="12"/>
       <c r="C82" s="4"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="29" t="s">
         <v>246</v>
       </c>
       <c r="K82" s="12"/>
       <c r="L82" s="4"/>
       <c r="M82" s="13"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75">
+    <row r="83" spans="1:13">
       <c r="A83" s="3"/>
       <c r="B83" s="12"/>
       <c r="C83" s="4"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="29" t="s">
         <v>247</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -5441,20 +5470,20 @@
       <c r="I83" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J83" s="31" t="s">
+      <c r="J83" s="29" t="s">
         <v>248</v>
       </c>
       <c r="K83" s="12"/>
       <c r="L83" s="4"/>
       <c r="M83" s="13"/>
     </row>
-    <row r="84" spans="1:13" ht="18.75">
+    <row r="84" spans="1:13">
       <c r="A84" s="3"/>
       <c r="B84" s="12"/>
       <c r="C84" s="4"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="31" t="s">
+      <c r="F84" s="29" t="s">
         <v>249</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -5463,20 +5492,20 @@
       <c r="I84" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="29" t="s">
         <v>250</v>
       </c>
       <c r="K84" s="12"/>
       <c r="L84" s="4"/>
       <c r="M84" s="13"/>
     </row>
-    <row r="85" spans="1:13" ht="18.75">
+    <row r="85" spans="1:13">
       <c r="A85" s="3"/>
       <c r="B85" s="12"/>
       <c r="C85" s="4"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="29" t="s">
         <v>251</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -5485,20 +5514,20 @@
       <c r="I85" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J85" s="31" t="s">
+      <c r="J85" s="29" t="s">
         <v>252</v>
       </c>
       <c r="K85" s="12"/>
       <c r="L85" s="4"/>
       <c r="M85" s="13"/>
     </row>
-    <row r="86" spans="1:13" ht="18.75">
+    <row r="86" spans="1:13">
       <c r="A86" s="3"/>
       <c r="B86" s="12"/>
       <c r="C86" s="4"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="29" t="s">
         <v>253</v>
       </c>
       <c r="H86" s="4" t="s">
@@ -5507,20 +5536,20 @@
       <c r="I86" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="29" t="s">
         <v>254</v>
       </c>
       <c r="K86" s="12"/>
       <c r="L86" s="4"/>
       <c r="M86" s="13"/>
     </row>
-    <row r="87" spans="1:13" ht="18.75">
+    <row r="87" spans="1:13">
       <c r="A87" s="3"/>
       <c r="B87" s="12"/>
       <c r="C87" s="4"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="29" t="s">
         <v>255</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -5529,20 +5558,20 @@
       <c r="I87" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J87" s="31" t="s">
+      <c r="J87" s="29" t="s">
         <v>256</v>
       </c>
       <c r="K87" s="12"/>
       <c r="L87" s="4"/>
       <c r="M87" s="13"/>
     </row>
-    <row r="88" spans="1:13" ht="18.75">
+    <row r="88" spans="1:13">
       <c r="A88" s="3"/>
       <c r="B88" s="12"/>
       <c r="C88" s="4"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="29" t="s">
         <v>257</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -5551,20 +5580,20 @@
       <c r="I88" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J88" s="31" t="s">
+      <c r="J88" s="29" t="s">
         <v>258</v>
       </c>
       <c r="K88" s="12"/>
       <c r="L88" s="4"/>
       <c r="M88" s="13"/>
     </row>
-    <row r="89" spans="1:13" ht="18.75">
+    <row r="89" spans="1:13">
       <c r="A89" s="3"/>
       <c r="B89" s="12"/>
       <c r="C89" s="4"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
-      <c r="F89" s="31" t="s">
+      <c r="F89" s="29" t="s">
         <v>259</v>
       </c>
       <c r="G89" s="12"/>
@@ -5574,20 +5603,20 @@
       <c r="I89" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J89" s="31" t="s">
+      <c r="J89" s="29" t="s">
         <v>260</v>
       </c>
       <c r="K89" s="12"/>
       <c r="L89" s="4"/>
       <c r="M89" s="13"/>
     </row>
-    <row r="90" spans="1:13" ht="18.75">
+    <row r="90" spans="1:13">
       <c r="A90" s="3"/>
       <c r="B90" s="12"/>
       <c r="C90" s="4"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="31" t="s">
+      <c r="F90" s="29" t="s">
         <v>261</v>
       </c>
       <c r="G90" s="12"/>
@@ -5597,20 +5626,20 @@
       <c r="I90" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J90" s="31" t="s">
+      <c r="J90" s="29" t="s">
         <v>262</v>
       </c>
       <c r="K90" s="12"/>
       <c r="L90" s="4"/>
       <c r="M90" s="13"/>
     </row>
-    <row r="91" spans="1:13" ht="18.75">
+    <row r="91" spans="1:13">
       <c r="A91" s="3"/>
       <c r="B91" s="12"/>
       <c r="C91" s="4"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="31" t="s">
+      <c r="F91" s="29" t="s">
         <v>263</v>
       </c>
       <c r="G91" s="12"/>
@@ -5620,13 +5649,13 @@
       <c r="I91" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J91" s="32"/>
+      <c r="J91" s="30"/>
       <c r="K91" s="12"/>
       <c r="L91" s="4"/>
       <c r="M91" s="13"/>
     </row>
-    <row r="92" spans="1:13" ht="18.75">
-      <c r="F92" s="31" t="s">
+    <row r="92" spans="1:13">
+      <c r="F92" s="29" t="s">
         <v>264</v>
       </c>
       <c r="G92" s="12"/>
@@ -5636,10 +5665,10 @@
       <c r="I92" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="1:13" ht="18.75">
-      <c r="F93" s="31" t="s">
+      <c r="J92" s="30"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="F93" s="29" t="s">
         <v>265</v>
       </c>
       <c r="G93" s="12"/>
@@ -5649,10 +5678,10 @@
       <c r="I93" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J93" s="32"/>
-    </row>
-    <row r="94" spans="1:13" ht="18.75">
-      <c r="F94" s="31" t="s">
+      <c r="J93" s="30"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="F94" s="29" t="s">
         <v>266</v>
       </c>
       <c r="G94" s="12"/>
@@ -5662,12 +5691,12 @@
       <c r="I94" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J94" s="31" t="s">
+      <c r="J94" s="29" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18.75">
-      <c r="F95" s="31" t="s">
+    <row r="95" spans="1:13">
+      <c r="F95" s="29" t="s">
         <v>268</v>
       </c>
       <c r="G95" s="12"/>
@@ -5677,12 +5706,12 @@
       <c r="I95" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J95" s="31" t="s">
+      <c r="J95" s="29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="18.75">
-      <c r="F96" s="31" t="s">
+    <row r="96" spans="1:13">
+      <c r="F96" s="29" t="s">
         <v>270</v>
       </c>
       <c r="G96" s="12"/>
@@ -5692,12 +5721,12 @@
       <c r="I96" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J96" s="31" t="s">
+      <c r="J96" s="29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="6:10" ht="18.75">
-      <c r="F97" s="31" t="s">
+    <row r="97" spans="6:10">
+      <c r="F97" s="29" t="s">
         <v>272</v>
       </c>
       <c r="G97" s="12"/>
@@ -5707,12 +5736,12 @@
       <c r="I97" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J97" s="31" t="s">
+      <c r="J97" s="29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="6:10" ht="18.75">
-      <c r="F98" s="31" t="s">
+    <row r="98" spans="6:10">
+      <c r="F98" s="29" t="s">
         <v>274</v>
       </c>
       <c r="G98" s="12"/>
@@ -5722,12 +5751,12 @@
       <c r="I98" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J98" s="31" t="s">
+      <c r="J98" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="6:10" ht="18.75">
-      <c r="F99" s="31" t="s">
+    <row r="99" spans="6:10">
+      <c r="F99" s="29" t="s">
         <v>276</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -5736,12 +5765,12 @@
       <c r="I99" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J99" s="31" t="s">
+      <c r="J99" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="6:10" ht="18.75">
-      <c r="F100" s="31" t="s">
+    <row r="100" spans="6:10">
+      <c r="F100" s="29" t="s">
         <v>278</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -5750,17 +5779,17 @@
       <c r="I100" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J100" s="31" t="s">
+      <c r="J100" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="6:10" ht="14.25">
+    <row r="101" spans="6:10">
       <c r="H101" s="4"/>
       <c r="I101" s="15"/>
-      <c r="J101" s="32"/>
-    </row>
-    <row r="102" spans="6:10" ht="18.75">
-      <c r="F102" s="31" t="s">
+      <c r="J101" s="30"/>
+    </row>
+    <row r="102" spans="6:10">
+      <c r="F102" s="29" t="s">
         <v>280</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -5769,12 +5798,12 @@
       <c r="I102" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J102" s="31" t="s">
+      <c r="J102" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="6:10" ht="18.75">
-      <c r="F103" s="31" t="s">
+    <row r="103" spans="6:10">
+      <c r="F103" s="29" t="s">
         <v>282</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -5783,12 +5812,12 @@
       <c r="I103" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J103" s="31" t="s">
+      <c r="J103" s="29" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="6:10" ht="18.75">
-      <c r="F104" s="31" t="s">
+    <row r="104" spans="6:10">
+      <c r="F104" s="29" t="s">
         <v>284</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -5797,12 +5826,12 @@
       <c r="I104" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J104" s="31" t="s">
+      <c r="J104" s="29" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="6:10" ht="18.75">
-      <c r="F105" s="31" t="s">
+    <row r="105" spans="6:10">
+      <c r="F105" s="29" t="s">
         <v>286</v>
       </c>
       <c r="H105" s="4" t="s">
@@ -5812,32 +5841,17 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="6:10" ht="14.25"/>
-    <row r="107" spans="6:10" ht="14.25"/>
-    <row r="108" spans="6:10" ht="14.25"/>
-    <row r="109" spans="6:10" ht="14.25"/>
-    <row r="110" spans="6:10" ht="14.25"/>
-    <row r="111" spans="6:10" ht="14.25"/>
-    <row r="112" spans="6:10" ht="14.25"/>
-    <row r="113" spans="6:6" ht="14.25"/>
-    <row r="114" spans="6:6" ht="14.25"/>
-    <row r="115" spans="6:6" ht="14.25"/>
-    <row r="116" spans="6:6" ht="14.25">
-      <c r="F116" s="32"/>
-    </row>
-    <row r="117" spans="6:6" ht="14.25">
-      <c r="F117" s="32"/>
-    </row>
-    <row r="118" spans="6:6" ht="15.75">
-      <c r="F118" s="31"/>
-    </row>
-    <row r="119" spans="6:6" ht="14.25"/>
-    <row r="120" spans="6:6" ht="14.25"/>
-    <row r="121" spans="6:6" ht="14.25"/>
-    <row r="122" spans="6:6" ht="14.25"/>
-    <row r="123" spans="6:6" ht="14.25"/>
-    <row r="124" spans="6:6" ht="15.75">
-      <c r="F124" s="30"/>
+    <row r="116" spans="6:6">
+      <c r="F116" s="30"/>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="30"/>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="29"/>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5861,20 +5875,20 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5916,15 +5930,15 @@
         <v>6</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5949,11 +5963,11 @@
         <v>14</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="11" t="s">
@@ -5974,11 +5988,11 @@
         <v>17</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="11" t="s">
@@ -5995,11 +6009,11 @@
       <c r="F5" s="3"/>
       <c r="G5" s="12"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="11" t="s">
@@ -6016,11 +6030,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="12"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
@@ -6041,11 +6055,11 @@
       <c r="F7" s="3"/>
       <c r="G7" s="12"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
@@ -6066,11 +6080,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
@@ -6091,11 +6105,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="12"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
@@ -6112,13 +6126,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="12"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" ht="96">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="128">
       <c r="A11" s="16" t="s">
         <v>33</v>
       </c>
@@ -8556,32 +8570,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48948475-F8E0-43D7-B092-0AE08AC807B5}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="25" customWidth="1"/>
-    <col min="2" max="4" width="10.375" style="25" customWidth="1"/>
-    <col min="5" max="8" width="6.25" style="25" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="25" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="25" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="25" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="25" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="25" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="25" customWidth="1"/>
-    <col min="18" max="18" width="10.375" style="25" customWidth="1"/>
-    <col min="19" max="20" width="4.875" style="25" customWidth="1"/>
-    <col min="21" max="22" width="9.875" style="12" customWidth="1"/>
-    <col min="23" max="24" width="4.875" style="12" customWidth="1"/>
-    <col min="25" max="25" width="10.375" style="25" customWidth="1"/>
-    <col min="26" max="27" width="8.625" style="25"/>
-    <col min="28" max="28" width="12.375" style="25" customWidth="1"/>
-    <col min="29" max="16384" width="8.625" style="25"/>
+    <col min="1" max="1" width="6.6328125" style="25" customWidth="1"/>
+    <col min="2" max="4" width="10.36328125" style="25" customWidth="1"/>
+    <col min="5" max="8" width="6.26953125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="10.36328125" style="25" customWidth="1"/>
+    <col min="19" max="20" width="4.90625" style="25" customWidth="1"/>
+    <col min="21" max="22" width="9.90625" style="12" customWidth="1"/>
+    <col min="23" max="24" width="4.90625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="10.36328125" style="25" customWidth="1"/>
+    <col min="26" max="27" width="8.6328125" style="25"/>
+    <col min="28" max="28" width="12.36328125" style="25" customWidth="1"/>
+    <col min="29" max="16384" width="8.6328125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="23" customFormat="1">
@@ -9370,5 +9384,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{116CC792-DC50-4EAD-9326-1E0A9B48F814}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{116CC792-DC50-4EAD-9326-1E0A9B48F814}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>